--- a/work.xlsx
+++ b/work.xlsx
@@ -39,7 +39,7 @@
       <sz val="10"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -50,6 +50,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00ff0000"/>
         <bgColor rgb="00ff0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000000ff"/>
+        <bgColor rgb="000000ff"/>
       </patternFill>
     </fill>
   </fills>
@@ -72,7 +78,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -81,6 +87,7 @@
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -464,19 +471,61 @@
           <t>Имя</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>2021-01-15</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>2021-01-16</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>Дмитрий</t>
         </is>
       </c>
       <c r="B2" s="3" t="n"/>
+      <c r="C2" s="3" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>ррр р</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="n"/>
+      <c r="C3" s="3" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Жека</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="n"/>
+      <c r="C4" s="3" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>brokenCYDE Dmitrii</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="n"/>
+      <c r="C5" s="3" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Ира I</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="n"/>
+      <c r="C6" s="3" t="n"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>

--- a/work.xlsx
+++ b/work.xlsx
@@ -39,7 +39,7 @@
       <sz val="10"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -56,6 +56,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="000000ff"/>
         <bgColor rgb="000000ff"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000ff00"/>
+        <bgColor rgb="0000ff00"/>
       </patternFill>
     </fill>
   </fills>
@@ -78,7 +84,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -88,6 +94,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,7 +464,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -481,6 +488,26 @@
           <t>2021-01-16</t>
         </is>
       </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>2021-01-17</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>2021-01-18</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>2021-01-19</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>2021-01-21</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -490,6 +517,10 @@
       </c>
       <c r="B2" s="3" t="n"/>
       <c r="C2" s="3" t="n"/>
+      <c r="D2" s="5" t="n"/>
+      <c r="E2" s="5" t="n"/>
+      <c r="F2" s="5" t="n"/>
+      <c r="G2" s="4" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -499,6 +530,10 @@
       </c>
       <c r="B3" s="4" t="n"/>
       <c r="C3" s="3" t="n"/>
+      <c r="D3" s="5" t="n"/>
+      <c r="E3" s="5" t="n"/>
+      <c r="F3" s="4" t="n"/>
+      <c r="G3" s="4" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -508,6 +543,10 @@
       </c>
       <c r="B4" s="4" t="n"/>
       <c r="C4" s="3" t="n"/>
+      <c r="D4" s="5" t="n"/>
+      <c r="E4" s="5" t="n"/>
+      <c r="F4" s="4" t="n"/>
+      <c r="G4" s="4" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -517,15 +556,192 @@
       </c>
       <c r="B5" s="4" t="n"/>
       <c r="C5" s="3" t="n"/>
+      <c r="D5" s="3" t="n"/>
+      <c r="E5" s="5" t="n"/>
+      <c r="F5" s="4" t="n"/>
+      <c r="G5" s="4" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>Ира I</t>
         </is>
       </c>
       <c r="B6" s="4" t="n"/>
       <c r="C6" s="3" t="n"/>
+      <c r="D6" s="5" t="n"/>
+      <c r="E6" s="4" t="n"/>
+      <c r="F6" s="4" t="n"/>
+      <c r="G6" s="3" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>Denis911</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="n"/>
+      <c r="C7" s="3" t="n"/>
+      <c r="D7" s="4" t="n"/>
+      <c r="E7" s="4" t="n"/>
+      <c r="F7" s="4" t="n"/>
+      <c r="G7" s="4" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>Владимир Дегтярь</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="n"/>
+      <c r="C8" s="3" t="n"/>
+      <c r="D8" s="4" t="n"/>
+      <c r="E8" s="4" t="n"/>
+      <c r="F8" s="4" t="n"/>
+      <c r="G8" s="4" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>Миха Брилев</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="n"/>
+      <c r="C9" s="3" t="n"/>
+      <c r="D9" s="4" t="n"/>
+      <c r="E9" s="3" t="n"/>
+      <c r="F9" s="4" t="n"/>
+      <c r="G9" s="4" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>@@@</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="n"/>
+      <c r="C10" s="3" t="n"/>
+      <c r="D10" s="5" t="n"/>
+      <c r="E10" s="4" t="n"/>
+      <c r="F10" s="4" t="n"/>
+      <c r="G10" s="4" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>Про</t>
+        </is>
+      </c>
+      <c r="B11" s="4" t="n"/>
+      <c r="C11" s="3" t="n"/>
+      <c r="D11" s="4" t="n"/>
+      <c r="E11" s="4" t="n"/>
+      <c r="F11" s="5" t="n"/>
+      <c r="G11" s="4" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>Ike Grigoryan</t>
+        </is>
+      </c>
+      <c r="B12" s="4" t="n"/>
+      <c r="C12" s="3" t="n"/>
+      <c r="D12" s="5" t="n"/>
+      <c r="E12" s="4" t="n"/>
+      <c r="F12" s="4" t="n"/>
+      <c r="G12" s="4" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>Misha</t>
+        </is>
+      </c>
+      <c r="B13" s="4" t="n"/>
+      <c r="C13" s="4" t="n"/>
+      <c r="D13" s="5" t="n"/>
+      <c r="E13" s="4" t="n"/>
+      <c r="F13" s="5" t="n"/>
+      <c r="G13" s="4" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>Антон Горбатов</t>
+        </is>
+      </c>
+      <c r="B14" s="4" t="n"/>
+      <c r="C14" s="4" t="n"/>
+      <c r="D14" s="5" t="n"/>
+      <c r="E14" s="5" t="n"/>
+      <c r="F14" s="4" t="n"/>
+      <c r="G14" s="4" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="B15" s="4" t="n"/>
+      <c r="C15" s="4" t="n"/>
+      <c r="D15" s="3" t="n"/>
+      <c r="E15" s="4" t="n"/>
+      <c r="F15" s="4" t="n"/>
+      <c r="G15" s="4" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>Айк</t>
+        </is>
+      </c>
+      <c r="B16" s="4" t="n"/>
+      <c r="C16" s="4" t="n"/>
+      <c r="D16" s="3" t="n"/>
+      <c r="E16" s="4" t="n"/>
+      <c r="F16" s="4" t="n"/>
+      <c r="G16" s="4" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>Денис</t>
+        </is>
+      </c>
+      <c r="B17" s="4" t="n"/>
+      <c r="C17" s="4" t="n"/>
+      <c r="D17" s="3" t="n"/>
+      <c r="E17" s="5" t="n"/>
+      <c r="F17" s="5" t="n"/>
+      <c r="G17" s="4" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>Василий</t>
+        </is>
+      </c>
+      <c r="B18" s="4" t="n"/>
+      <c r="C18" s="4" t="n"/>
+      <c r="D18" s="4" t="n"/>
+      <c r="E18" s="5" t="n"/>
+      <c r="F18" s="5" t="n"/>
+      <c r="G18" s="4" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>Кристиночка</t>
+        </is>
+      </c>
+      <c r="B19" s="4" t="n"/>
+      <c r="C19" s="4" t="n"/>
+      <c r="D19" s="4" t="n"/>
+      <c r="E19" s="5" t="n"/>
+      <c r="F19" s="5" t="n"/>
+      <c r="G19" s="4" t="n"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
